--- a/Views/assets/templates/PlantillaCargaMasivaProductos.xlsx
+++ b/Views/assets/templates/PlantillaCargaMasivaProductos.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\WebPuntoVenta2025\Views\assets\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BD8720B-0CCD-425F-93C2-006758AB1FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF3B63CD-5094-4C90-B6D9-44CC661D9F0A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -94,12 +94,6 @@
     <t>Precio Venta</t>
   </si>
   <si>
-    <t>Precio 1</t>
-  </si>
-  <si>
-    <t>Precio 2</t>
-  </si>
-  <si>
     <t>Lleva IVA (1/0)</t>
   </si>
   <si>
@@ -134,6 +128,12 @@
   </si>
   <si>
     <t>img_pan.png</t>
+  </si>
+  <si>
+    <t>Precio por Mayor</t>
+  </si>
+  <si>
+    <t>Precio Especial</t>
   </si>
 </sst>
 </file>
@@ -402,12 +402,13 @@
   <dimension ref="A1:P5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="M6" sqref="M6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="15.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
@@ -486,28 +487,28 @@
         <v>23</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K2" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="N2" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="O2" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="P2" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.2">
@@ -524,10 +525,10 @@
         <v>1</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="G3" s="1">
         <v>1.5</v>
@@ -571,10 +572,10 @@
         <v>2</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="G4" s="1">
         <v>0.8</v>
@@ -592,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="1">
-        <v>50.5</v>
+        <v>50</v>
       </c>
       <c r="M4" s="1">
         <v>5</v>
@@ -621,10 +622,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="G5" s="1">
         <v>2</v>
@@ -651,7 +652,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>150</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
